--- a/kjpt-platform/src/main/webapp/data/kyptljrw_template.xlsx
+++ b/kjpt-platform/src/main/webapp/data/kyptljrw_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,9 @@
   <si>
     <t>专业</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密级</t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -359,15 +362,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,6 +382,9 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/kjpt-platform/src/main/webapp/data/kyptljrw_template.xlsx
+++ b/kjpt-platform/src/main/webapp/data/kyptljrw_template.xlsx
@@ -1,16 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouhu/Desktop/project/kjpt/kjpt-platform/src/main/webapp/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,15 +47,12 @@
     <t>专业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>密级</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,23 +362,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,9 +391,6 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
